--- a/aspnet-core/src/tmss.Web.Host/wwwroot/Excel_Template/GoodsDeliveryNote_Template.xlsx
+++ b/aspnet-core/src/tmss.Web.Host/wwwroot/Excel_Template/GoodsDeliveryNote_Template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoAnTotNghiep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\tmss\aspnet-core\src\tmss.Web.Host\wwwroot\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5DB776-566D-4DB2-B3A0-2792180ECC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="PX" sheetId="2" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PX!$A$11:$I$35</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -74,10 +73,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>Thực
- nhập</t>
-  </si>
-  <si>
     <t>Chứng từ</t>
   </si>
   <si>
@@ -136,12 +131,16 @@
   </si>
   <si>
     <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>Thực
+ xuất</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -149,7 +148,7 @@
     <numFmt numFmtId="166" formatCode="&quot;Ngày &quot;dd&quot; tháng &quot;mm&quot; năm &quot;yyyy"/>
     <numFmt numFmtId="167" formatCode="&quot;Nợ TK: &quot;000"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -318,6 +317,12 @@
     <font>
       <sz val="9"/>
       <color indexed="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -899,7 +904,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -936,9 +941,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1025,10 +1027,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1066,9 +1064,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1103,9 +1098,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1116,6 +1108,150 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1124,6 +1260,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1140,149 +1284,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal_Dichso" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal_DocSoUnicode" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal_Dichso" xfId="4"/>
+    <cellStyle name="Normal_DocSoUnicode" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1298,9 +1318,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1338,9 +1358,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1375,7 +1395,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1410,7 +1430,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1583,189 +1603,187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:XEP227"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="2" customWidth="1"/>
-    <col min="10" max="28" width="9.109375" style="2" customWidth="1"/>
-    <col min="29" max="16356" width="9.109375" style="2" hidden="1"/>
-    <col min="16357" max="16357" width="10.33203125" style="2" hidden="1"/>
-    <col min="16358" max="16384" width="9.109375" style="2" hidden="1"/>
+    <col min="1" max="1" width="14.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="2" customWidth="1"/>
+    <col min="10" max="28" width="9.140625" style="2" customWidth="1"/>
+    <col min="29" max="16356" width="9.140625" style="2" hidden="1"/>
+    <col min="16357" max="16357" width="10.28515625" style="2" hidden="1"/>
+    <col min="16358" max="16384" width="9.140625" style="2" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickTop="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="82"/>
+    </row>
+    <row r="2" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="69"/>
-    </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A2" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="71">
-        <f ca="1">TODAY()</f>
-        <v>45270</v>
-      </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="73"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.6">
-      <c r="A3" s="90"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="79" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="73"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.6">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.6">
-      <c r="A5" s="37"/>
-      <c r="B5" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="41"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.6">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38" t="s">
+      <c r="I2" s="85"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75">
+      <c r="A3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="41"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.6">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38" t="s">
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="85"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="85"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75">
+      <c r="A5" s="35"/>
+      <c r="B5" s="37" t="s">
         <v>26</v>
       </c>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="39"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75">
+      <c r="A6" s="35"/>
+      <c r="B6" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="39"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75">
+      <c r="A7" s="35"/>
+      <c r="B7" s="36" t="s">
+        <v>25</v>
+      </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="22" t="s">
-        <v>21</v>
-      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="21"/>
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="41"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="39"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="43"/>
+      <c r="I8" s="41"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A9" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="64" t="s">
+      <c r="A9" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="84" t="s">
+      <c r="B9" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="C9" s="99"/>
+      <c r="D9" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="92" t="s">
+      <c r="E9" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="93"/>
-      <c r="H9" s="62" t="s">
+      <c r="F9" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="80" t="s">
+      <c r="G9" s="71"/>
+      <c r="H9" s="94" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="27.6">
-      <c r="A10" s="89"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
+      <c r="I9" s="88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="28.5">
+      <c r="A10" s="73"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
       <c r="F10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="81"/>
-    </row>
-    <row r="11" spans="1:9" ht="13.8">
-      <c r="A11" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="95"/>
+      <c r="I10" s="89"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.25">
+      <c r="A11" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="91"/>
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1781,563 +1799,597 @@
       <c r="H11" s="1">
         <v>3</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="46"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="87"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="93"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="47"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="60"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="46"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="78"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="9"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="47"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="60"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="46"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="78"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="47"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="60"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="46"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="78"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="47"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="60"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="46"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="78"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="9"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="47"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="60"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="46"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="78"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="47"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="60"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="46"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="78"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="9"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="47"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="60"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="46"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="78"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="9"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="47"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="60"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="46"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="97"/>
       <c r="D20" s="9"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="47"/>
-    </row>
-    <row r="21" spans="1:9" ht="17.399999999999999" thickBot="1">
-      <c r="A21" s="48"/>
-      <c r="B21" s="100" t="s">
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="60"/>
+    </row>
+    <row r="21" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A21" s="45"/>
+      <c r="B21" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="23" t="s">
+      <c r="C21" s="103"/>
+      <c r="D21" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="23">
         <f>SUM(F12:F20)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="23">
         <f>SUM(G12:G20)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="49">
+      <c r="I21" s="46">
         <f>SUM(I12:I20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="13.8" thickTop="1">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51" t="s">
+    <row r="22" spans="1:9" ht="22.5" customHeight="1" thickTop="1">
+      <c r="A22" s="47"/>
+      <c r="B22" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="I22" s="53"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="50"/>
-      <c r="B23" s="54" t="s">
+      <c r="C22" s="49"/>
+      <c r="I22" s="50"/>
+    </row>
+    <row r="23" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A23" s="47"/>
+      <c r="B23" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="55"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="52"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="50"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="51"/>
-      <c r="I24" s="53"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="48"/>
+      <c r="I24" s="50"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="50"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="51"/>
-      <c r="I25" s="53"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="48"/>
+      <c r="I25" s="50"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="56"/>
-      <c r="B26" s="57" t="s">
+      <c r="A26" s="53"/>
+      <c r="B26" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="94" t="s">
+      <c r="C26" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94" t="s">
+      <c r="G26" s="78"/>
+      <c r="H26" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="95"/>
+      <c r="I26" s="79"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="50"/>
-      <c r="I27" s="53"/>
+      <c r="A27" s="47"/>
+      <c r="I27" s="50"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="50"/>
-      <c r="I28" s="53"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="63"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="50"/>
-      <c r="I29" s="53"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="63"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="50"/>
-      <c r="I30" s="53"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="63"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="50"/>
-      <c r="I31" s="53"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="63"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="50"/>
-      <c r="I32" s="53"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="63"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="50"/>
-      <c r="I33" s="53"/>
-    </row>
-    <row r="34" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A34" s="59"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="97"/>
-    </row>
-    <row r="35" spans="1:9" ht="13.8" thickTop="1"/>
-    <row r="219" spans="16357:16370" ht="13.8">
-      <c r="XEC219" s="12">
+      <c r="A33" s="47"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="63"/>
+    </row>
+    <row r="34" spans="1:9" ht="13.5" thickBot="1">
+      <c r="A34" s="55"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="87"/>
+    </row>
+    <row r="35" spans="1:9" ht="13.5" thickTop="1"/>
+    <row r="219" spans="16357:16370" ht="15">
+      <c r="XEC219" s="11">
         <f>I21</f>
         <v>0</v>
       </c>
-      <c r="XED219" s="13" t="str">
+      <c r="XED219" s="12" t="str">
         <f>RIGHT("000000000000"&amp;ROUND(XEC219,0),12)</f>
         <v>000000000000</v>
       </c>
-      <c r="XEE219" s="14">
+      <c r="XEE219" s="13">
         <v>1</v>
       </c>
-      <c r="XEF219" s="14">
+      <c r="XEF219" s="13">
         <v>2</v>
       </c>
-      <c r="XEG219" s="14">
+      <c r="XEG219" s="13">
         <v>3</v>
       </c>
-      <c r="XEH219" s="14">
+      <c r="XEH219" s="13">
         <v>4</v>
       </c>
-      <c r="XEI219" s="14">
+      <c r="XEI219" s="13">
         <v>5</v>
       </c>
-      <c r="XEJ219" s="14">
+      <c r="XEJ219" s="13">
         <v>6</v>
       </c>
-      <c r="XEK219" s="14">
+      <c r="XEK219" s="13">
         <v>7</v>
       </c>
-      <c r="XEL219" s="14">
+      <c r="XEL219" s="13">
         <v>8</v>
       </c>
-      <c r="XEM219" s="14">
+      <c r="XEM219" s="13">
         <v>9</v>
       </c>
-      <c r="XEN219" s="14">
+      <c r="XEN219" s="13">
         <v>10</v>
       </c>
-      <c r="XEO219" s="14">
+      <c r="XEO219" s="13">
         <v>11</v>
       </c>
-      <c r="XEP219" s="14">
+      <c r="XEP219" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="220" spans="16357:16370" ht="13.8">
-      <c r="XEC220" s="12"/>
-      <c r="XED220" s="13"/>
-      <c r="XEE220" s="14"/>
-      <c r="XEF220" s="14"/>
-      <c r="XEG220" s="14"/>
-      <c r="XEH220" s="14"/>
-      <c r="XEI220" s="14"/>
-      <c r="XEJ220" s="14"/>
-      <c r="XEK220" s="14"/>
-      <c r="XEL220" s="14"/>
-      <c r="XEM220" s="14"/>
-      <c r="XEN220" s="14"/>
-      <c r="XEO220" s="14"/>
-      <c r="XEP220" s="14"/>
-    </row>
-    <row r="221" spans="16357:16370" ht="13.8">
-      <c r="XEC221" s="15"/>
-      <c r="XED221" s="16"/>
-      <c r="XEE221" s="17">
+    <row r="220" spans="16357:16370" ht="15">
+      <c r="XEC220" s="11"/>
+      <c r="XED220" s="12"/>
+      <c r="XEE220" s="13"/>
+      <c r="XEF220" s="13"/>
+      <c r="XEG220" s="13"/>
+      <c r="XEH220" s="13"/>
+      <c r="XEI220" s="13"/>
+      <c r="XEJ220" s="13"/>
+      <c r="XEK220" s="13"/>
+      <c r="XEL220" s="13"/>
+      <c r="XEM220" s="13"/>
+      <c r="XEN220" s="13"/>
+      <c r="XEO220" s="13"/>
+      <c r="XEP220" s="13"/>
+    </row>
+    <row r="221" spans="16357:16370" ht="15">
+      <c r="XEC221" s="14"/>
+      <c r="XED221" s="15"/>
+      <c r="XEE221" s="16">
         <f>VALUE(MID(XED219,XEE219,1))</f>
         <v>0</v>
       </c>
-      <c r="XEF221" s="17">
+      <c r="XEF221" s="16">
         <f>VALUE(MID(XED219,XEF219,1))</f>
         <v>0</v>
       </c>
-      <c r="XEG221" s="17">
+      <c r="XEG221" s="16">
         <f>VALUE(MID(XED219,XEG219,1))</f>
         <v>0</v>
       </c>
-      <c r="XEH221" s="17">
+      <c r="XEH221" s="16">
         <f>VALUE(MID(XED219,XEH219,1))</f>
         <v>0</v>
       </c>
-      <c r="XEI221" s="17">
+      <c r="XEI221" s="16">
         <f>VALUE(MID(XED219,XEI219,1))</f>
         <v>0</v>
       </c>
-      <c r="XEJ221" s="17">
+      <c r="XEJ221" s="16">
         <f>VALUE(MID(XED219,XEJ219,1))</f>
         <v>0</v>
       </c>
-      <c r="XEK221" s="17">
+      <c r="XEK221" s="16">
         <f>VALUE(MID(XED219,XEK219,1))</f>
         <v>0</v>
       </c>
-      <c r="XEL221" s="17">
+      <c r="XEL221" s="16">
         <f>VALUE(MID(XED219,XEL219,1))</f>
         <v>0</v>
       </c>
-      <c r="XEM221" s="17">
+      <c r="XEM221" s="16">
         <f>VALUE(MID(XED219,XEM219,1))</f>
         <v>0</v>
       </c>
-      <c r="XEN221" s="17">
+      <c r="XEN221" s="16">
         <f>VALUE(MID(XED219,XEN219,1))</f>
         <v>0</v>
       </c>
-      <c r="XEO221" s="17">
+      <c r="XEO221" s="16">
         <f>VALUE(MID(XED219,XEO219,1))</f>
         <v>0</v>
       </c>
-      <c r="XEP221" s="17">
+      <c r="XEP221" s="16">
         <f>VALUE(MID(XED219,XEP219,1))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="16357:16370" ht="13.8">
-      <c r="XEC222" s="15"/>
-      <c r="XED222" s="16"/>
-      <c r="XEE222" s="17">
+    <row r="222" spans="16357:16370" ht="15">
+      <c r="XEC222" s="14"/>
+      <c r="XED222" s="15"/>
+      <c r="XEE222" s="16">
         <f>SUM(XEE221:XEE221)</f>
         <v>0</v>
       </c>
-      <c r="XEF222" s="17">
+      <c r="XEF222" s="16">
         <f>SUM(XEE221:XEF221)</f>
         <v>0</v>
       </c>
-      <c r="XEG222" s="17">
+      <c r="XEG222" s="16">
         <f>SUM(XEE221:XEG221)</f>
         <v>0</v>
       </c>
-      <c r="XEH222" s="17">
+      <c r="XEH222" s="16">
         <f>SUM(XEH221:XEH221)</f>
         <v>0</v>
       </c>
-      <c r="XEI222" s="17">
+      <c r="XEI222" s="16">
         <f>SUM(XEH221:XEI221)</f>
         <v>0</v>
       </c>
-      <c r="XEJ222" s="17">
+      <c r="XEJ222" s="16">
         <f>SUM(XEH221:XEJ221)</f>
         <v>0</v>
       </c>
-      <c r="XEK222" s="17">
+      <c r="XEK222" s="16">
         <f>SUM(XEK221:XEK221)</f>
         <v>0</v>
       </c>
-      <c r="XEL222" s="17">
+      <c r="XEL222" s="16">
         <f>SUM(XEK221:XEL221)</f>
         <v>0</v>
       </c>
-      <c r="XEM222" s="17">
+      <c r="XEM222" s="16">
         <f>SUM(XEK221:XEM221)</f>
         <v>0</v>
       </c>
-      <c r="XEN222" s="17">
+      <c r="XEN222" s="16">
         <f>SUM(XEN221:XEN221)</f>
         <v>0</v>
       </c>
-      <c r="XEO222" s="17">
+      <c r="XEO222" s="16">
         <f>SUM(XEN221:XEO221)</f>
         <v>0</v>
       </c>
-      <c r="XEP222" s="17">
+      <c r="XEP222" s="16">
         <f>SUM(XEN221:XEP221)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="16357:16370" ht="13.8">
-      <c r="XEC223" s="15"/>
-      <c r="XED223" s="18"/>
-      <c r="XEE223" s="19" t="str">
+    <row r="223" spans="16357:16370" ht="15">
+      <c r="XEC223" s="14"/>
+      <c r="XED223" s="17"/>
+      <c r="XEE223" s="18" t="str">
         <f>IF(XEE221=0,"",CHOOSE(XEE221,"một","hai","ba","bốn","năm","sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="XEF223" s="19" t="str">
+      <c r="XEF223" s="18" t="str">
         <f>IF(XEF221=0,IF(AND(XEE221&lt;&gt;0,XEG221&lt;&gt;0),"lẻ",""),CHOOSE(XEF221,"mười","hai","ba","bốn","năm","sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="XEG223" s="19" t="str">
+      <c r="XEG223" s="18" t="str">
         <f>IF(XEG221=0,"",CHOOSE(XEG221,IF(XEF221&gt;1,"mốt","một"),"hai","ba","bốn",IF(XEF221=0,"năm","lăm"),"sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="XEH223" s="19" t="str">
+      <c r="XEH223" s="18" t="str">
         <f>IF(XEH221=0,"",CHOOSE(XEH221,"một","hai","ba","bốn","năm","sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="XEI223" s="19" t="str">
+      <c r="XEI223" s="18" t="str">
         <f>IF(XEI221=0,IF(AND(XEH221&lt;&gt;0,XEJ221&lt;&gt;0),"lẻ",""),CHOOSE(XEI221,"mười","hai","ba","bốn","năm","sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="XEJ223" s="19" t="str">
+      <c r="XEJ223" s="18" t="str">
         <f>IF(XEJ221=0,"",CHOOSE(XEJ221,IF(XEI221&gt;1,"mốt","một"),"hai","ba","bốn",IF(XEI221=0,"năm","lăm"),"sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="XEK223" s="19" t="str">
+      <c r="XEK223" s="18" t="str">
         <f>IF(XEK221=0,"",CHOOSE(XEK221,"một","hai","ba","bốn","năm","sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="XEL223" s="19" t="str">
+      <c r="XEL223" s="18" t="str">
         <f>IF(XEL221=0,IF(AND(XEK221&lt;&gt;0,XEM221&lt;&gt;0),"lẻ",""),CHOOSE(XEL221,"mười","hai","ba","bốn","năm","sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="XEM223" s="19" t="str">
+      <c r="XEM223" s="18" t="str">
         <f>IF(XEM221=0,"",CHOOSE(XEM221,IF(XEL221&gt;1,"mốt","một"),"hai","ba","bốn",IF(XEL221=0,"năm","lăm"),"sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="XEN223" s="19" t="str">
+      <c r="XEN223" s="18" t="str">
         <f>IF(XEN221=0,"",CHOOSE(XEN221,"một","hai","ba","bốn","năm","sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="XEO223" s="19" t="str">
+      <c r="XEO223" s="18" t="str">
         <f>IF(XEO221=0,IF(AND(XEN221&lt;&gt;0,XEP221&lt;&gt;0),"lẻ",""),CHOOSE(XEO221,"mười","hai","ba","bốn","năm","sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
-      <c r="XEP223" s="19" t="str">
+      <c r="XEP223" s="18" t="str">
         <f>IF(XEP221=0,"",CHOOSE(XEP221,IF(XEO221&gt;1,"mốt","một"),"hai","ba","bốn",IF(XEO221=0,"năm","lăm"),"sáu","bảy","tám","chín"))</f>
         <v/>
       </c>
     </row>
-    <row r="224" spans="16357:16370" ht="13.8">
-      <c r="XEC224" s="15"/>
-      <c r="XED224" s="18"/>
-      <c r="XEE224" s="20" t="str">
+    <row r="224" spans="16357:16370" ht="15">
+      <c r="XEC224" s="14"/>
+      <c r="XED224" s="17"/>
+      <c r="XEE224" s="19" t="str">
         <f>IF(XEE221=0,"","trăm")</f>
         <v/>
       </c>
-      <c r="XEF224" s="20" t="str">
+      <c r="XEF224" s="19" t="str">
         <f>IF(XEF221=0,"",IF(XEF221=1,"","mươi"))</f>
         <v/>
       </c>
-      <c r="XEG224" s="20" t="str">
+      <c r="XEG224" s="19" t="str">
         <f>IF(AND(XEG221=0,XEG222=0),"","tỷ")</f>
         <v/>
       </c>
-      <c r="XEH224" s="20" t="str">
+      <c r="XEH224" s="19" t="str">
         <f>IF(XEH221=0,"","trăm")</f>
         <v/>
       </c>
-      <c r="XEI224" s="20" t="str">
+      <c r="XEI224" s="19" t="str">
         <f>IF(XEI221=0,"",IF(XEI221=1,"","mươi"))</f>
         <v/>
       </c>
-      <c r="XEJ224" s="20" t="str">
+      <c r="XEJ224" s="19" t="str">
         <f>IF(AND(XEJ221=0,XEJ222=0),"","triệu")</f>
         <v/>
       </c>
-      <c r="XEK224" s="20" t="str">
+      <c r="XEK224" s="19" t="str">
         <f>IF(XEK221=0,"","trăm")</f>
         <v/>
       </c>
-      <c r="XEL224" s="20" t="str">
+      <c r="XEL224" s="19" t="str">
         <f>IF(XEL221=0,"",IF(XEL221=1,"","mươi"))</f>
         <v/>
       </c>
-      <c r="XEM224" s="20" t="str">
+      <c r="XEM224" s="19" t="str">
         <f>IF(AND(XEM221=0,XEM222=0),"","ngàn")</f>
         <v/>
       </c>
-      <c r="XEN224" s="20" t="str">
+      <c r="XEN224" s="19" t="str">
         <f>IF(XEN221=0,"","trăm")</f>
         <v/>
       </c>
-      <c r="XEO224" s="20" t="str">
+      <c r="XEO224" s="19" t="str">
         <f>IF(XEO221=0,"",IF(XEO221=1,"","mươi"))</f>
         <v/>
       </c>
-      <c r="XEP224" s="20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="16357:16370" ht="13.8">
-      <c r="XEC225" s="15"/>
-      <c r="XED225" s="21" t="str">
+      <c r="XEP224" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="16357:16370" ht="15">
+      <c r="XEC225" s="14"/>
+      <c r="XED225" s="20" t="str">
         <f>UPPER(LEFT(TRIM(IF(XEC219=0,"không đồng.",XEE223&amp;" "&amp;XEE224&amp;" "&amp;XEF223&amp;" "&amp;XEF224&amp;" "&amp;XEG223&amp;" "&amp;XEG224&amp;" "&amp;XEH223&amp;" "&amp;XEH224&amp;" "&amp;XEI223&amp;" "&amp;XEI224&amp;" "&amp;XEJ223&amp;" "&amp;XEJ224&amp;" "&amp;XEK223&amp;" "&amp;XEK224&amp;" "&amp;XEL223&amp;" "&amp;XEL224&amp;" "&amp;XEM223&amp;" "&amp;XEM224&amp;" "&amp;XEN223&amp;" "&amp;XEN224&amp;" "&amp;XEO223&amp;" "&amp;XEO224&amp;" "&amp;XEP223&amp;" "&amp;XEP224)),1))&amp;RIGHT(TRIM(IF(XEC219=0,"không đồng.",XEE223&amp;" "&amp;XEE224&amp;" "&amp;XEF223&amp;" "&amp;XEF224&amp;" "&amp;XEG223&amp;" "&amp;XEG224&amp;" "&amp;XEH223&amp;" "&amp;XEH224&amp;" "&amp;XEI223&amp;" "&amp;XEI224&amp;" "&amp;XEJ223&amp;" "&amp;XEJ224&amp;" "&amp;XEK223&amp;" "&amp;XEK224&amp;" "&amp;XEL223&amp;" "&amp;XEL224&amp;" "&amp;XEM223&amp;" "&amp;XEM224&amp;" "&amp;XEN223&amp;" "&amp;XEN224&amp;" "&amp;XEO223&amp;" "&amp;XEO224&amp;" "&amp;XEP223&amp;" "&amp;XEP224)),LEN(TRIM(IF(XEC219=0,"không đồng.",XEE223&amp;" "&amp;XEE224&amp;" "&amp;XEF223&amp;" "&amp;XEF224&amp;" "&amp;XEG223&amp;" "&amp;XEG224&amp;" "&amp;XEH223&amp;" "&amp;XEH224&amp;" "&amp;XEI223&amp;" "&amp;XEI224&amp;" "&amp;XEJ223&amp;" "&amp;XEJ224&amp;" "&amp;XEK223&amp;" "&amp;XEK224&amp;" "&amp;XEL223&amp;" "&amp;XEL224&amp;" "&amp;XEM223&amp;" "&amp;XEM224&amp;" "&amp;XEN223&amp;" "&amp;XEN224&amp;" "&amp;XEO223&amp;" "&amp;XEO224&amp;" "&amp;XEP223&amp;" "&amp;XEP224)))-1)</f>
         <v>Không đồng.</v>
       </c>
-      <c r="XEE225" s="18"/>
-      <c r="XEF225" s="18"/>
-      <c r="XEG225" s="18"/>
-      <c r="XEH225" s="18"/>
-      <c r="XEI225" s="18"/>
-      <c r="XEJ225" s="18"/>
-      <c r="XEK225" s="18"/>
-      <c r="XEL225" s="18"/>
-      <c r="XEM225" s="18"/>
-      <c r="XEN225" s="18"/>
-      <c r="XEO225" s="18"/>
-      <c r="XEP225" s="18"/>
-    </row>
-    <row r="226" spans="16357:16370" ht="13.8">
-      <c r="XEC226" s="15"/>
-      <c r="XED226" s="15"/>
-      <c r="XEE226" s="15"/>
-      <c r="XEF226" s="15"/>
-      <c r="XEG226" s="15"/>
-      <c r="XEH226" s="15"/>
-      <c r="XEI226" s="15"/>
-      <c r="XEJ226" s="15"/>
-      <c r="XEK226" s="15"/>
-      <c r="XEL226" s="15"/>
-      <c r="XEM226" s="15"/>
-      <c r="XEN226" s="15"/>
-      <c r="XEO226" s="15"/>
-      <c r="XEP226" s="15"/>
-    </row>
-    <row r="227" spans="16357:16370" ht="13.8">
-      <c r="XEC227" s="15"/>
-      <c r="XED227" s="15"/>
-      <c r="XEE227" s="15"/>
-      <c r="XEF227" s="15"/>
-      <c r="XEG227" s="15"/>
-      <c r="XEH227" s="15"/>
-      <c r="XEI227" s="15"/>
-      <c r="XEJ227" s="15"/>
-      <c r="XEK227" s="15"/>
-      <c r="XEL227" s="15"/>
-      <c r="XEM227" s="15"/>
-      <c r="XEN227" s="15"/>
-      <c r="XEO227" s="15"/>
-      <c r="XEP227" s="15"/>
+      <c r="XEE225" s="17"/>
+      <c r="XEF225" s="17"/>
+      <c r="XEG225" s="17"/>
+      <c r="XEH225" s="17"/>
+      <c r="XEI225" s="17"/>
+      <c r="XEJ225" s="17"/>
+      <c r="XEK225" s="17"/>
+      <c r="XEL225" s="17"/>
+      <c r="XEM225" s="17"/>
+      <c r="XEN225" s="17"/>
+      <c r="XEO225" s="17"/>
+      <c r="XEP225" s="17"/>
+    </row>
+    <row r="226" spans="16357:16370" ht="15">
+      <c r="XEC226" s="14"/>
+      <c r="XED226" s="14"/>
+      <c r="XEE226" s="14"/>
+      <c r="XEF226" s="14"/>
+      <c r="XEG226" s="14"/>
+      <c r="XEH226" s="14"/>
+      <c r="XEI226" s="14"/>
+      <c r="XEJ226" s="14"/>
+      <c r="XEK226" s="14"/>
+      <c r="XEL226" s="14"/>
+      <c r="XEM226" s="14"/>
+      <c r="XEN226" s="14"/>
+      <c r="XEO226" s="14"/>
+      <c r="XEP226" s="14"/>
+    </row>
+    <row r="227" spans="16357:16370" ht="15">
+      <c r="XEC227" s="14"/>
+      <c r="XED227" s="14"/>
+      <c r="XEE227" s="14"/>
+      <c r="XEF227" s="14"/>
+      <c r="XEG227" s="14"/>
+      <c r="XEH227" s="14"/>
+      <c r="XEI227" s="14"/>
+      <c r="XEJ227" s="14"/>
+      <c r="XEK227" s="14"/>
+      <c r="XEL227" s="14"/>
+      <c r="XEM227" s="14"/>
+      <c r="XEN227" s="14"/>
+      <c r="XEO227" s="14"/>
+      <c r="XEP227" s="14"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A11:I35" xr:uid="{00000000-0009-0000-0000-000001000000}">
+  <autoFilter ref="A11:I35">
     <filterColumn colId="1" showButton="0"/>
   </autoFilter>
-  <mergeCells count="31">
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="H9:H10"/>
+  <mergeCells count="36">
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B17:C17"/>
@@ -2345,28 +2397,38 @@
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="H2:I4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C28:E33"/>
+    <mergeCell ref="F28:G33"/>
+    <mergeCell ref="H28:I33"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="H26:I26"/>
   </mergeCells>
-  <dataValidations xWindow="926" yWindow="296" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Excel.webkynang.vn" prompt="Mạng xã hội học excel hàng đầu Việt Nam" sqref="F3" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>OFFSET(DSPX,1,0,COUNTA(DS_PX),1)</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Excel.webkynang.vn" prompt="Mạng xã hội học excel hàng đầu Việt Nam" sqref="F1:F2 F4:F1048576 A1:E1048576 G1:XFD1048576" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+  <dataValidations xWindow="926" yWindow="296" count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Excel.webkynang.vn" prompt="Mạng xã hội học excel hàng đầu Việt Nam" sqref="F1:F2 G34:G1048576 C34:C1048576 A1:A1048576 B34:B1048576 B1:B28 E27 D34:E1048576 D27 C1:D25 E1:E25 C26:C28 F34:F1048576 G1:G27 F4:F28 I34:I1048576 J1:XFD1048576 I1:I27 H1:H28 H34:H1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>

--- a/aspnet-core/src/tmss.Web.Host/wwwroot/Excel_Template/GoodsDeliveryNote_Template.xlsx
+++ b/aspnet-core/src/tmss.Web.Host/wwwroot/Excel_Template/GoodsDeliveryNote_Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\tmss\aspnet-core\src\tmss.Web.Host\wwwroot\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoAnTotNghiep\DoAnTotNghiep\aspnet-core\src\tmss.Web.Host\wwwroot\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6152960-8491-4241-9851-5E75E0860060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PX" sheetId="2" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PX!$A$11:$I$35</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -76,9 +77,6 @@
     <t>Chứng từ</t>
   </si>
   <si>
-    <t>Thành  tiền</t>
-  </si>
-  <si>
     <t>Đơn giá</t>
   </si>
   <si>
@@ -135,12 +133,16 @@
   <si>
     <t>Thực
  xuất</t>
+  </si>
+  <si>
+    <t>Thành  tiền
+(Đã tính phí vận chuyển)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -979,10 +981,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1120,6 +1118,114 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1132,62 +1238,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1196,44 +1246,36 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1252,57 +1294,17 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal_Dichso" xfId="4"/>
-    <cellStyle name="Normal_DocSoUnicode" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal_Dichso" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal_DocSoUnicode" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1318,9 +1320,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1358,9 +1360,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1395,7 +1397,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1430,7 +1432,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1603,7 +1605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:XEP227"/>
   <sheetViews>
@@ -1611,179 +1613,179 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="2" customWidth="1"/>
-    <col min="10" max="28" width="9.140625" style="2" customWidth="1"/>
-    <col min="29" max="16356" width="9.140625" style="2" hidden="1"/>
-    <col min="16357" max="16357" width="10.28515625" style="2" hidden="1"/>
-    <col min="16358" max="16384" width="9.140625" style="2" hidden="1"/>
+    <col min="1" max="1" width="8.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.21875" style="2" customWidth="1"/>
+    <col min="10" max="28" width="9.109375" style="2" customWidth="1"/>
+    <col min="29" max="16356" width="9.109375" style="2" hidden="1"/>
+    <col min="16357" max="16357" width="10.33203125" style="2" hidden="1"/>
+    <col min="16358" max="16384" width="9.109375" style="2" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickTop="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="77"/>
+    </row>
+    <row r="2" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="81" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="82"/>
-    </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A2" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="85"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="104" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="85"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="85"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="35"/>
-      <c r="B5" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="39"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36" t="s">
+      <c r="I2" s="80"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.6">
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="39"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36" t="s">
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="80"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.6">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="80"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.6">
+      <c r="A5" s="34"/>
+      <c r="B5" s="36" t="s">
         <v>25</v>
+      </c>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="38"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.6">
+      <c r="A6" s="34"/>
+      <c r="B6" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="38"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.6">
+      <c r="A7" s="34"/>
+      <c r="B7" s="35" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="21"/>
+        <v>19</v>
+      </c>
+      <c r="E7" s="104"/>
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="38"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="41"/>
+      <c r="I8" s="40"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A9" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="98" t="s">
+      <c r="A9" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="68" t="s">
+      <c r="B9" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="C9" s="95"/>
+      <c r="D9" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="70" t="s">
+      <c r="E9" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="71"/>
-      <c r="H9" s="94" t="s">
+      <c r="F9" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="88" t="s">
+      <c r="G9" s="68"/>
+      <c r="H9" s="85" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="28.5">
-      <c r="A10" s="73"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
+      <c r="I9" s="83" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="27.6">
+      <c r="A10" s="70"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="95"/>
-      <c r="I10" s="89"/>
-    </row>
-    <row r="11" spans="1:9" ht="14.25">
-      <c r="A11" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="86"/>
+      <c r="I10" s="84"/>
+    </row>
+    <row r="11" spans="1:9" ht="13.8">
+      <c r="A11" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="91"/>
+      <c r="C11" s="101"/>
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1799,272 +1801,272 @@
       <c r="H11" s="1">
         <v>3</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="44"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="93"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="59"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="44"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="67"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="9"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="60"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="59"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="44"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="67"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="60"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="59"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="44"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="67"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="60"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="59"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="44"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="9"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="60"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="59"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="44"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="60"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="59"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="44"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="67"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="9"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="60"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="59"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="44"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="67"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="9"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="60"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="59"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="44"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="97"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="93"/>
       <c r="D20" s="9"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="60"/>
-    </row>
-    <row r="21" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A21" s="45"/>
-      <c r="B21" s="102" t="s">
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="59"/>
+    </row>
+    <row r="21" spans="1:9" ht="17.399999999999999" thickBot="1">
+      <c r="A21" s="44"/>
+      <c r="B21" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="103"/>
-      <c r="D21" s="22" t="s">
+      <c r="C21" s="99"/>
+      <c r="D21" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="22">
         <f>SUM(F12:F20)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="22">
         <f>SUM(G12:G20)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="22" t="s">
+      <c r="H21" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="46">
+      <c r="I21" s="45">
         <f>SUM(I12:I20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="22.5" customHeight="1" thickTop="1">
-      <c r="A22" s="47"/>
-      <c r="B22" s="48" t="s">
+      <c r="A22" s="46"/>
+      <c r="B22" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="I22" s="50"/>
+      <c r="C22" s="48"/>
+      <c r="I22" s="49"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A23" s="47"/>
-      <c r="B23" s="51" t="s">
+      <c r="A23" s="46"/>
+      <c r="B23" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="52"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="51"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="47"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="48"/>
-      <c r="I24" s="50"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="47"/>
+      <c r="I24" s="49"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="47"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="48"/>
-      <c r="I25" s="50"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="47"/>
+      <c r="I25" s="49"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="53"/>
-      <c r="B26" s="54" t="s">
+      <c r="A26" s="52"/>
+      <c r="B26" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="78" t="s">
+      <c r="C26" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78" t="s">
+      <c r="G26" s="90"/>
+      <c r="H26" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="79"/>
+      <c r="I26" s="91"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="47"/>
-      <c r="I27" s="50"/>
+      <c r="A27" s="46"/>
+      <c r="I27" s="49"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="47"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="63"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="89"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="47"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="63"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="89"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="47"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="63"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="89"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="47"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="63"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="89"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="47"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="63"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="89"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="47"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="63"/>
-    </row>
-    <row r="34" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A34" s="55"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="87"/>
-    </row>
-    <row r="35" spans="1:9" ht="13.5" thickTop="1"/>
-    <row r="219" spans="16357:16370" ht="15">
+      <c r="A33" s="46"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="89"/>
+    </row>
+    <row r="34" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A34" s="54"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="82"/>
+    </row>
+    <row r="35" spans="1:9" ht="13.8" thickTop="1"/>
+    <row r="219" spans="16357:16370" ht="13.8">
       <c r="XEC219" s="11">
         <f>I21</f>
         <v>0</v>
@@ -2110,7 +2112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="220" spans="16357:16370" ht="15">
+    <row r="220" spans="16357:16370" ht="13.8">
       <c r="XEC220" s="11"/>
       <c r="XED220" s="12"/>
       <c r="XEE220" s="13"/>
@@ -2126,7 +2128,7 @@
       <c r="XEO220" s="13"/>
       <c r="XEP220" s="13"/>
     </row>
-    <row r="221" spans="16357:16370" ht="15">
+    <row r="221" spans="16357:16370" ht="13.8">
       <c r="XEC221" s="14"/>
       <c r="XED221" s="15"/>
       <c r="XEE221" s="16">
@@ -2178,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="16357:16370" ht="15">
+    <row r="222" spans="16357:16370" ht="13.8">
       <c r="XEC222" s="14"/>
       <c r="XED222" s="15"/>
       <c r="XEE222" s="16">
@@ -2230,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="16357:16370" ht="15">
+    <row r="223" spans="16357:16370" ht="13.8">
       <c r="XEC223" s="14"/>
       <c r="XED223" s="17"/>
       <c r="XEE223" s="18" t="str">
@@ -2282,7 +2284,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="16357:16370" ht="15">
+    <row r="224" spans="16357:16370" ht="13.8">
       <c r="XEC224" s="14"/>
       <c r="XED224" s="17"/>
       <c r="XEE224" s="19" t="str">
@@ -2333,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="16357:16370" ht="15">
+    <row r="225" spans="16357:16370" ht="13.8">
       <c r="XEC225" s="14"/>
       <c r="XED225" s="20" t="str">
         <f>UPPER(LEFT(TRIM(IF(XEC219=0,"không đồng.",XEE223&amp;" "&amp;XEE224&amp;" "&amp;XEF223&amp;" "&amp;XEF224&amp;" "&amp;XEG223&amp;" "&amp;XEG224&amp;" "&amp;XEH223&amp;" "&amp;XEH224&amp;" "&amp;XEI223&amp;" "&amp;XEI224&amp;" "&amp;XEJ223&amp;" "&amp;XEJ224&amp;" "&amp;XEK223&amp;" "&amp;XEK224&amp;" "&amp;XEL223&amp;" "&amp;XEL224&amp;" "&amp;XEM223&amp;" "&amp;XEM224&amp;" "&amp;XEN223&amp;" "&amp;XEN224&amp;" "&amp;XEO223&amp;" "&amp;XEO224&amp;" "&amp;XEP223&amp;" "&amp;XEP224)),1))&amp;RIGHT(TRIM(IF(XEC219=0,"không đồng.",XEE223&amp;" "&amp;XEE224&amp;" "&amp;XEF223&amp;" "&amp;XEF224&amp;" "&amp;XEG223&amp;" "&amp;XEG224&amp;" "&amp;XEH223&amp;" "&amp;XEH224&amp;" "&amp;XEI223&amp;" "&amp;XEI224&amp;" "&amp;XEJ223&amp;" "&amp;XEJ224&amp;" "&amp;XEK223&amp;" "&amp;XEK224&amp;" "&amp;XEL223&amp;" "&amp;XEL224&amp;" "&amp;XEM223&amp;" "&amp;XEM224&amp;" "&amp;XEN223&amp;" "&amp;XEN224&amp;" "&amp;XEO223&amp;" "&amp;XEO224&amp;" "&amp;XEP223&amp;" "&amp;XEP224)),LEN(TRIM(IF(XEC219=0,"không đồng.",XEE223&amp;" "&amp;XEE224&amp;" "&amp;XEF223&amp;" "&amp;XEF224&amp;" "&amp;XEG223&amp;" "&amp;XEG224&amp;" "&amp;XEH223&amp;" "&amp;XEH224&amp;" "&amp;XEI223&amp;" "&amp;XEI224&amp;" "&amp;XEJ223&amp;" "&amp;XEJ224&amp;" "&amp;XEK223&amp;" "&amp;XEK224&amp;" "&amp;XEL223&amp;" "&amp;XEL224&amp;" "&amp;XEM223&amp;" "&amp;XEM224&amp;" "&amp;XEN223&amp;" "&amp;XEN224&amp;" "&amp;XEO223&amp;" "&amp;XEO224&amp;" "&amp;XEP223&amp;" "&amp;XEP224)))-1)</f>
@@ -2352,7 +2354,7 @@
       <c r="XEO225" s="17"/>
       <c r="XEP225" s="17"/>
     </row>
-    <row r="226" spans="16357:16370" ht="15">
+    <row r="226" spans="16357:16370" ht="13.8">
       <c r="XEC226" s="14"/>
       <c r="XED226" s="14"/>
       <c r="XEE226" s="14"/>
@@ -2368,7 +2370,7 @@
       <c r="XEO226" s="14"/>
       <c r="XEP226" s="14"/>
     </row>
-    <row r="227" spans="16357:16370" ht="15">
+    <row r="227" spans="16357:16370" ht="13.8">
       <c r="XEC227" s="14"/>
       <c r="XED227" s="14"/>
       <c r="XEE227" s="14"/>
@@ -2386,14 +2388,10 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A11:I35">
+  <autoFilter ref="A11:I35" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="36">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B9:C10"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="F26:G26"/>
@@ -2414,6 +2412,11 @@
     <mergeCell ref="C28:E33"/>
     <mergeCell ref="F28:G33"/>
     <mergeCell ref="H28:I33"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D9:D10"/>
@@ -2424,11 +2427,10 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B9:C10"/>
   </mergeCells>
   <dataValidations xWindow="926" yWindow="296" count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Excel.webkynang.vn" prompt="Mạng xã hội học excel hàng đầu Việt Nam" sqref="F1:F2 G34:G1048576 C34:C1048576 A1:A1048576 B34:B1048576 B1:B28 E27 D34:E1048576 D27 C1:D25 E1:E25 C26:C28 F34:F1048576 G1:G27 F4:F28 I34:I1048576 J1:XFD1048576 I1:I27 H1:H28 H34:H1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Excel.webkynang.vn" prompt="Mạng xã hội học excel hàng đầu Việt Nam" sqref="F1:F2 G34:G1048576 C34:C1048576 A1:A1048576 B34:B1048576 B1:B28 E27 D34:E1048576 D27 C1:D25 E1:E25 C26:C28 F34:F1048576 G1:G27 F4:F28 I34:I1048576 J1:XFD1048576 I1:I27 H1:H28 H34:H1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
